--- a/m6A papers/Performance_0530.xlsx
+++ b/m6A papers/Performance_0530.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="1" r:id="rId1"/>
-    <sheet name="RNA datasets" sheetId="5" r:id="rId2"/>
-    <sheet name="6mA-rice-Chen dataset" sheetId="7" r:id="rId3"/>
-    <sheet name="6mA-rice-Lv dataset" sheetId="8" r:id="rId4"/>
-    <sheet name="6mA-mouse-Feng dataset " sheetId="9" r:id="rId5"/>
+    <sheet name="6mA-rice-Chen dataset" sheetId="7" r:id="rId2"/>
+    <sheet name="6mA-rice-Lv dataset" sheetId="8" r:id="rId3"/>
+    <sheet name="6mA-mouse-Feng dataset " sheetId="9" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="269">
   <si>
     <t>Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -656,12 +655,6 @@
   <si>
     <t>6mAPred-MSFF</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>iN6-Methyl</t>
-  </si>
-  <si>
-    <t>pm6A-CNN</t>
   </si>
   <si>
     <t>-</t>
@@ -987,256 +980,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUC (H.sapiens 0.96, M.musculus 0.97, S.cerevisiae 0.92, A.thanliana 0.97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DL paper used this data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Negative data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source paper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 bp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-rice-Chen dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source paper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen, W., Lv, H., Nie, F., and Lin, H. (2019). i6mA-Pred: identifying DNA N6-methyladenine sites in the rice genome. Bioinformatics. 35, 2796–2800.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lin-group.cn/server/i6mAPred/benchmark.zip</t>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNNRice6mA</t>
+  </si>
+  <si>
+    <t>6mA-rice-Lv dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv, H., Dao, F.-Y., Guan, Z.-X., Zhang, D., Tan, J.-X., Zhang, Y., et al. (2019). iDNA6mA-Rice: a computational tool for detecting N6-methyladenine sites in rice. Front. Genet. 10, 1–11.</t>
+  </si>
+  <si>
+    <t>Positive data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>DL paper used this data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Negative data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positive data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 bp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A. thaliana</t>
-  </si>
-  <si>
-    <t>Organism</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organism</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download link</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download link</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source paper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A. thaliana (A101)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>It can be observed that H41 and M41 have AUC of 90.30% and 91.33%, receptively. while the AUC of S51 is 80.31%.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Negative data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positive data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 bp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 bp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source paper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUC (H.sapiens 0.96, M.musculus 0.97, S.cerevisiae 0.92, A.thanliana 0.97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>It can be observed that H41 and M41 have AUC of 90.30% and 91.33%, receptively. while the AUC of S51 is 80.31%.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL paper used this data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 bp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Homo sapiens (H41)</t>
-  </si>
-  <si>
-    <t>AUC (H.sapiens 0.96, M.musculus 0.97, S.cerevisiae 0.92, A.thanliana 0.97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>It can be observed that H41 and M41 have AUC of 90.30% and 91.33%, receptively. while the AUC of S51 is 80.31%.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL paper used this data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Negative data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 bp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae</t>
-  </si>
-  <si>
-    <t>Organism</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download link</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae (S51)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mA-rice-Chen dataset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source paper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen, W., Lv, H., Nie, F., and Lin, H. (2019). i6mA-Pred: identifying DNA N6-methyladenine sites in the rice genome. Bioinformatics. 35, 2796–2800.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lin-group.cn/server/i6mAPred/benchmark.zip</t>
-  </si>
-  <si>
-    <t>Rice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SNNRice6mA</t>
-  </si>
-  <si>
-    <t>6mA-rice-Lv dataset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv, H., Dao, F.-Y., Guan, Z.-X., Zhang, D., Tan, J.-X., Zhang, Y., et al. (2019). iDNA6mA-Rice: a computational tool for detecting N6-methyladenine sites in rice. Front. Genet. 10, 1–11.</t>
-  </si>
-  <si>
-    <t>Positive data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL paper used this data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">6mA-mouse-Feng dataset </t>
   </si>
   <si>
@@ -1254,113 +1082,6 @@
   </si>
   <si>
     <t>http://lin-group.cn/server/iDNA6mA-Rice/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>W. Chen, H. Tang and H. Lin, "MethyRNA: A Web server for identification of N⁶-methyladenosine sites", </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>J. Biomol. Struct. Dyn.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, vol. 35, no. 3, pp. 683-687, Feb. 2017.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>http://lin.uestc.edu.cn/server/Methy/data</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D. Dominissini, S. Moshitch-Moshkovitz, S. Schwartz, M. Salmon-Divon, L. Ungar, S. Osenberg, et al., "Topology of the human and mouse m⁶A RNA methylomes revealed by m⁶A-seq", </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, vol. 485, no. 7397, pp. 201-206, 2012.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>W. Chen, H. Tran, Z. Liang, H. Lin and L. Zhang, "Identification and analysis of the N6-methyladenosine in the saccharomyces cerevisiae transcriptome", </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sci. Rep.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, vol. 5, no. 1, pp. 13859, Nov. 2015.</t>
-    </r>
-  </si>
-  <si>
-    <t>http://lin.uestc.edu.cn/server/m6Apred.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nongdaxiaofeng/RFAthM6A (github.com)</t>
-  </si>
-  <si>
-    <t>X. Wang and R. Yan, "RFAthM6A: A new tool for predicting m6A sites in arabidopsis thaliana", Plant Mol. Biol., vol. 96, no. 3, pp. 327-337, Feb. 2018.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mus musculus (M41)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1376,7 +1097,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1467,40 +1188,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1688,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,12 +1540,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2030,411 +1711,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6309808" cy="2912633"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4640580" y="1885950"/>
-          <a:ext cx="6309808" cy="2912633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6235849" cy="2912632"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4632960" y="13216890"/>
-          <a:ext cx="6235849" cy="2912632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6309808" cy="2912633"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4655820" y="24982170"/>
-          <a:ext cx="6309808" cy="2912633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5570220" cy="2819400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4640580" y="13201650"/>
-          <a:ext cx="5570220" cy="2819400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6510170" cy="5109882"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4800600" y="5238750"/>
-          <a:ext cx="6510170" cy="5109882"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6510170" cy="5109884"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4800600" y="16344900"/>
-          <a:ext cx="6510170" cy="5109884"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6510170" cy="5109883"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4800600" y="28917900"/>
-          <a:ext cx="6510170" cy="5109883"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6510169" cy="5109882"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="圖片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7543800" y="37299900"/>
-          <a:ext cx="6510169" cy="5109882"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2494,7 +1770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2964,13 +2240,13 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>84</v>
@@ -2982,34 +2258,34 @@
         <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>39</v>
@@ -3025,54 +2301,54 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="95">
         <v>43672</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="90" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="O2" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="K2" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="106" t="s">
-        <v>181</v>
-      </c>
       <c r="Q2" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R2" s="22">
         <v>51</v>
@@ -3084,30 +2360,30 @@
         <v>80.31</v>
       </c>
       <c r="U2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
       <c r="Q3" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="R3" s="67">
+        <v>183</v>
+      </c>
+      <c r="R3" s="65">
         <v>41</v>
       </c>
       <c r="S3" s="20">
@@ -3118,26 +2394,26 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
       <c r="Q4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="R4" s="66"/>
+        <v>184</v>
+      </c>
+      <c r="R4" s="64"/>
       <c r="S4" s="21">
         <v>1450</v>
       </c>
@@ -3146,56 +2422,56 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="95">
+        <v>43749</v>
+      </c>
+      <c r="F5" s="98">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="97">
-        <v>43749</v>
-      </c>
-      <c r="F5" s="100">
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="71" t="s">
+      <c r="K5" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="68" t="s">
+      <c r="N5" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="L5" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="M5" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="O5" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="P5" s="63" t="s">
-        <v>204</v>
+      <c r="O5" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>202</v>
       </c>
       <c r="Q5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="65">
+      <c r="R5" s="63">
         <v>41</v>
       </c>
       <c r="S5" s="42">
@@ -3206,26 +2482,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="64"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="62"/>
       <c r="Q6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="67"/>
+      <c r="R6" s="65"/>
       <c r="S6" s="44">
         <v>308000</v>
       </c>
@@ -3234,84 +2510,84 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="62"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="60"/>
       <c r="Q7" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="R7" s="66"/>
+        <v>209</v>
+      </c>
+      <c r="R7" s="64"/>
       <c r="S7" s="43">
         <v>3868</v>
       </c>
       <c r="T7" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="96">
+        <v>44029</v>
+      </c>
+      <c r="F8" s="65">
+        <v>3.367</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="62" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="98">
-        <v>44029</v>
-      </c>
-      <c r="F8" s="67">
-        <v>3.367</v>
-      </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="64" t="s">
+      <c r="J8" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="M8" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="L8" s="79" t="s">
+      <c r="N8" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="105" t="s">
         <v>216</v>
-      </c>
-      <c r="M8" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="107" t="s">
-        <v>218</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="65">
         <v>41</v>
       </c>
       <c r="S8" s="46">
@@ -3322,26 +2598,26 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="67"/>
+      <c r="R9" s="65"/>
       <c r="S9" s="46">
         <v>1450</v>
       </c>
@@ -3350,22 +2626,22 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
       <c r="Q10" s="6" t="s">
         <v>22</v>
       </c>
@@ -3380,22 +2656,22 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
       <c r="Q11" s="21" t="s">
         <v>141</v>
       </c>
@@ -3410,86 +2686,86 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="95">
+        <v>44217</v>
+      </c>
+      <c r="F12" s="63">
+        <v>5.7190000000000003</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="97">
-        <v>44217</v>
-      </c>
-      <c r="F12" s="65">
-        <v>5.7190000000000003</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="63" t="s">
+      <c r="L12" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="61" t="s">
+      <c r="M12" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="P12" s="104" t="s">
         <v>237</v>
-      </c>
-      <c r="L12" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="M12" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="O12" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="P12" s="106" t="s">
-        <v>239</v>
       </c>
       <c r="Q12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="65">
+      <c r="R12" s="63">
         <v>41</v>
       </c>
       <c r="S12" s="19">
         <v>1760</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="66"/>
+      <c r="R13" s="64"/>
       <c r="S13" s="21">
         <v>308000</v>
       </c>
@@ -3498,38 +2774,38 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="80" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="63">
         <v>2020</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="63">
         <v>8.8859999999999992</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="58" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
       <c r="Q14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="65">
+      <c r="R14" s="63">
         <v>41</v>
       </c>
       <c r="S14" s="19">
@@ -3540,26 +2816,26 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
       <c r="Q15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="67"/>
+      <c r="R15" s="65"/>
       <c r="S15" s="20">
         <v>10536</v>
       </c>
@@ -3568,26 +2844,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
       <c r="Q16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="67"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="20">
         <v>18294</v>
       </c>
@@ -3596,26 +2872,26 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
       <c r="Q17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="67"/>
+      <c r="R17" s="65"/>
       <c r="S17" s="20">
         <v>32100</v>
       </c>
@@ -3624,26 +2900,26 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
       <c r="Q18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="67"/>
+      <c r="R18" s="65"/>
       <c r="S18" s="20">
         <v>16532</v>
       </c>
@@ -3652,26 +2928,26 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
       <c r="Q19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="67"/>
+      <c r="R19" s="65"/>
       <c r="S19" s="20">
         <v>15810</v>
       </c>
@@ -3680,26 +2956,26 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
       <c r="Q20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="67"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="20">
         <v>8802</v>
       </c>
@@ -3708,26 +2984,26 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
       <c r="Q21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="67"/>
+      <c r="R21" s="65"/>
       <c r="S21" s="20">
         <v>18823</v>
       </c>
@@ -3736,26 +3012,26 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="67"/>
+      <c r="R22" s="65"/>
       <c r="S22" s="20">
         <v>9406</v>
       </c>
@@ -3764,26 +3040,26 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
       <c r="Q23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="67"/>
+      <c r="R23" s="65"/>
       <c r="S23" s="20">
         <v>7048</v>
       </c>
@@ -3792,26 +3068,26 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
       <c r="Q24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="66"/>
+      <c r="R24" s="64"/>
       <c r="S24" s="21">
         <v>13740</v>
       </c>
@@ -3820,38 +3096,38 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="80" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="63">
         <v>2020</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="63">
         <v>4.0960000000000001</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="90" t="s">
+      <c r="G25" s="61"/>
+      <c r="H25" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="77" t="s">
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="75">
         <v>51</v>
       </c>
       <c r="S25" s="19">
@@ -3862,24 +3138,24 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
       <c r="S26" s="21">
         <v>6540</v>
       </c>
@@ -3888,38 +3164,38 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="93" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="63">
         <v>2021</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="63">
         <v>4.4749999999999996</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="90" t="s">
+      <c r="G27" s="61"/>
+      <c r="H27" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
       <c r="Q27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="65">
+      <c r="R27" s="63">
         <v>41</v>
       </c>
       <c r="S27" s="19">
@@ -3931,26 +3207,26 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
       <c r="Q28" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="R28" s="67"/>
+      <c r="R28" s="65"/>
       <c r="S28" s="20">
         <v>308000</v>
       </c>
@@ -3960,26 +3236,26 @@
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
       <c r="Q29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="R29" s="67"/>
+      <c r="R29" s="65"/>
       <c r="S29" s="20">
         <v>196966</v>
       </c>
@@ -3988,26 +3264,26 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
       <c r="Q30" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="R30" s="67"/>
+      <c r="R30" s="65"/>
       <c r="S30" s="20">
         <v>11466</v>
       </c>
@@ -4016,26 +3292,26 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
       <c r="Q31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="R31" s="66"/>
+      <c r="R31" s="64"/>
       <c r="S31" s="21">
         <v>2834</v>
       </c>
@@ -4044,38 +3320,38 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="80" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="63">
         <v>2021</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="63">
         <v>3.367</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="90" t="s">
+      <c r="G32" s="61"/>
+      <c r="H32" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
       <c r="Q32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="65">
+      <c r="R32" s="63">
         <v>41</v>
       </c>
       <c r="S32" s="19">
@@ -4086,26 +3362,26 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
       <c r="Q33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="R33" s="67"/>
+      <c r="R33" s="65"/>
       <c r="S33" s="20">
         <v>1450</v>
       </c>
@@ -4114,22 +3390,22 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="20" t="s">
         <v>54</v>
       </c>
@@ -4144,22 +3420,22 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
       <c r="Q35" s="21" t="s">
         <v>55</v>
       </c>
@@ -4175,7 +3451,7 @@
     </row>
     <row r="36" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4214,36 +3490,36 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="65">
+      <c r="C37" s="61"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="63">
         <v>2020</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="90" t="s">
+      <c r="G37" s="61"/>
+      <c r="H37" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
       <c r="Q37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R37" s="65">
+      <c r="R37" s="63">
         <v>41</v>
       </c>
       <c r="S37" s="19">
@@ -4254,26 +3530,26 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
       <c r="Q38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R38" s="67"/>
+      <c r="R38" s="65"/>
       <c r="S38" s="20">
         <v>761300</v>
       </c>
@@ -4282,26 +3558,26 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
       <c r="Q39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="R39" s="67"/>
+      <c r="R39" s="65"/>
       <c r="S39" s="20">
         <v>76104</v>
       </c>
@@ -4310,26 +3586,26 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
       <c r="Q40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="R40" s="67"/>
+      <c r="R40" s="65"/>
       <c r="S40" s="20">
         <v>53028</v>
       </c>
@@ -4338,26 +3614,26 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
       <c r="Q41" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="R41" s="67"/>
+      <c r="R41" s="65"/>
       <c r="S41" s="20">
         <v>29354</v>
       </c>
@@ -4366,26 +3642,26 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
       <c r="Q42" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="R42" s="67"/>
+      <c r="R42" s="65"/>
       <c r="S42" s="20">
         <v>1553716</v>
       </c>
@@ -4394,26 +3670,26 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
       <c r="Q43" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="R43" s="67"/>
+      <c r="R43" s="65"/>
       <c r="S43" s="20">
         <v>326986</v>
       </c>
@@ -4422,26 +3698,26 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
       <c r="Q44" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="R44" s="67"/>
+      <c r="R44" s="65"/>
       <c r="S44" s="20">
         <v>6903</v>
       </c>
@@ -4450,26 +3726,26 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
       <c r="Q45" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="R45" s="66"/>
+      <c r="R45" s="64"/>
       <c r="S45" s="21">
         <v>8188</v>
       </c>
@@ -4478,36 +3754,36 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="80" t="s">
+      <c r="A46" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="63">
         <v>2020</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="63">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="90" t="s">
+      <c r="G46" s="61"/>
+      <c r="H46" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
       <c r="Q46" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R46" s="65">
+      <c r="R46" s="63">
         <v>41</v>
       </c>
       <c r="S46" s="19">
@@ -4518,26 +3794,26 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
       <c r="Q47" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="66"/>
+      <c r="R47" s="64"/>
       <c r="S47" s="21">
         <v>3868</v>
       </c>
@@ -4547,7 +3823,7 @@
     </row>
     <row r="48" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>106</v>
@@ -4588,38 +3864,38 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="63" t="s">
+      <c r="A49" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="80" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="63">
         <v>2021</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="63">
         <v>7.7210000000000001</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="90" t="s">
+      <c r="G49" s="61"/>
+      <c r="H49" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
       <c r="Q49" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R49" s="65">
+      <c r="R49" s="63">
         <v>41</v>
       </c>
       <c r="S49" s="19">
@@ -4630,26 +3906,26 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
       <c r="Q50" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="R50" s="67"/>
+      <c r="R50" s="65"/>
       <c r="S50" s="20">
         <v>10536</v>
       </c>
@@ -4658,26 +3934,26 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
       <c r="Q51" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R51" s="67"/>
+      <c r="R51" s="65"/>
       <c r="S51" s="20">
         <v>18294</v>
       </c>
@@ -4686,26 +3962,26 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
       <c r="Q52" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R52" s="67"/>
+      <c r="R52" s="65"/>
       <c r="S52" s="20">
         <v>32100</v>
       </c>
@@ -4714,26 +3990,26 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
       <c r="Q53" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R53" s="67"/>
+      <c r="R53" s="65"/>
       <c r="S53" s="20">
         <v>16532</v>
       </c>
@@ -4742,26 +4018,26 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
       <c r="Q54" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R54" s="67"/>
+      <c r="R54" s="65"/>
       <c r="S54" s="20">
         <v>15810</v>
       </c>
@@ -4770,26 +4046,26 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
       <c r="Q55" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="R55" s="67"/>
+      <c r="R55" s="65"/>
       <c r="S55" s="20">
         <v>8802</v>
       </c>
@@ -4798,26 +4074,26 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
       <c r="Q56" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="R56" s="67"/>
+      <c r="R56" s="65"/>
       <c r="S56" s="20">
         <v>18823</v>
       </c>
@@ -4826,26 +4102,26 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
       <c r="Q57" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R57" s="67"/>
+      <c r="R57" s="65"/>
       <c r="S57" s="20">
         <v>9406</v>
       </c>
@@ -4854,26 +4130,26 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
       <c r="Q58" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="R58" s="67"/>
+      <c r="R58" s="65"/>
       <c r="S58" s="20">
         <v>7048</v>
       </c>
@@ -4882,26 +4158,26 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="62"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
       <c r="Q59" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R59" s="66"/>
+      <c r="R59" s="64"/>
       <c r="S59" s="21">
         <v>13740</v>
       </c>
@@ -4910,38 +4186,38 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="B60" s="63" t="s">
+      <c r="A60" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="80" t="s">
+      <c r="C60" s="61"/>
+      <c r="D60" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="63">
         <v>2021</v>
       </c>
-      <c r="F60" s="65">
+      <c r="F60" s="63">
         <v>4.38</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="58" t="s">
+      <c r="G60" s="61"/>
+      <c r="H60" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
       <c r="Q60" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R60" s="65">
+      <c r="R60" s="63">
         <v>41</v>
       </c>
       <c r="S60" s="19">
@@ -4952,26 +4228,26 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-      <c r="P61" s="64"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
       <c r="Q61" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="R61" s="67"/>
+      <c r="R61" s="65"/>
       <c r="S61" s="20">
         <v>308000</v>
       </c>
@@ -4980,26 +4256,26 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
       <c r="Q62" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="R62" s="67"/>
+      <c r="R62" s="65"/>
       <c r="S62" s="20">
         <v>8979</v>
       </c>
@@ -5008,26 +4284,26 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="60"/>
+      <c r="P63" s="60"/>
       <c r="Q63" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="R63" s="66"/>
+      <c r="R63" s="64"/>
       <c r="S63" s="21">
         <v>67650</v>
       </c>
@@ -5036,38 +4312,38 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B64" s="63" t="s">
+      <c r="A64" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="80" t="s">
+      <c r="C64" s="61"/>
+      <c r="D64" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="E64" s="65">
+      <c r="E64" s="63">
         <v>2021</v>
       </c>
-      <c r="F64" s="65">
+      <c r="F64" s="63">
         <v>2.984</v>
       </c>
-      <c r="G64" s="63"/>
-      <c r="H64" s="58" t="s">
+      <c r="G64" s="61"/>
+      <c r="H64" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
       <c r="Q64" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="R64" s="65">
+      <c r="R64" s="63">
         <v>41</v>
       </c>
       <c r="S64" s="19">
@@ -5078,26 +4354,26 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="64"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="62"/>
       <c r="Q65" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R65" s="67"/>
+      <c r="R65" s="65"/>
       <c r="S65" s="20">
         <v>3868</v>
       </c>
@@ -5106,26 +4382,26 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="62"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="62"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="60"/>
+      <c r="P66" s="60"/>
       <c r="Q66" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="R66" s="66"/>
+      <c r="R66" s="64"/>
       <c r="S66" s="21">
         <v>1229712</v>
       </c>
@@ -5134,36 +4410,36 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="93" t="s">
+      <c r="A67" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="65">
+      <c r="E67" s="63">
         <v>2021</v>
       </c>
-      <c r="F67" s="65">
+      <c r="F67" s="63">
         <v>11.622</v>
       </c>
-      <c r="G67" s="65"/>
-      <c r="H67" s="90" t="s">
+      <c r="G67" s="63"/>
+      <c r="H67" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
       <c r="Q67" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="R67" s="65">
+      <c r="R67" s="63">
         <v>41</v>
       </c>
       <c r="S67" s="19">
@@ -5174,26 +4450,26 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="64"/>
       <c r="Q68" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R68" s="66"/>
+      <c r="R68" s="64"/>
       <c r="S68" s="21">
         <v>21306</v>
       </c>
@@ -5202,38 +4478,38 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="B69" s="63" t="s">
+      <c r="A69" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="80" t="s">
+      <c r="C69" s="61"/>
+      <c r="D69" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="65">
+      <c r="E69" s="63">
         <v>2021</v>
       </c>
-      <c r="F69" s="65">
+      <c r="F69" s="63">
         <v>2.6789999999999998</v>
       </c>
-      <c r="G69" s="63"/>
-      <c r="H69" s="90" t="s">
+      <c r="G69" s="61"/>
+      <c r="H69" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
       <c r="Q69" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="R69" s="65">
+      <c r="R69" s="63">
         <v>41</v>
       </c>
       <c r="S69" s="19">
@@ -5244,26 +4520,26 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="64"/>
-      <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
-      <c r="O70" s="64"/>
-      <c r="P70" s="64"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="62"/>
       <c r="Q70" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="R70" s="67"/>
+      <c r="R70" s="65"/>
       <c r="S70" s="20">
         <v>1760</v>
       </c>
@@ -5272,26 +4548,26 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="64"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="62"/>
       <c r="Q71" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="R71" s="67"/>
+      <c r="R71" s="65"/>
       <c r="S71" s="20">
         <v>31874</v>
       </c>
@@ -5300,26 +4576,26 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="64"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
       <c r="Q72" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="R72" s="67"/>
+      <c r="R72" s="65"/>
       <c r="S72" s="20">
         <v>23630</v>
       </c>
@@ -5328,26 +4604,26 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="64"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="62"/>
       <c r="Q73" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R73" s="67"/>
+      <c r="R73" s="65"/>
       <c r="S73" s="20">
         <v>45400</v>
       </c>
@@ -5356,26 +4632,26 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="64"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="64"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="62"/>
       <c r="Q74" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="R74" s="67"/>
+      <c r="R74" s="65"/>
       <c r="S74" s="20">
         <v>36670</v>
       </c>
@@ -5384,26 +4660,26 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="62"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="62"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="60"/>
       <c r="Q75" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="R75" s="66"/>
+      <c r="R75" s="64"/>
       <c r="S75" s="21">
         <v>22382</v>
       </c>
@@ -5412,38 +4688,38 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" s="63" t="s">
+      <c r="A76" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="80" t="s">
+      <c r="C76" s="61"/>
+      <c r="D76" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="65">
+      <c r="E76" s="63">
         <v>2022</v>
       </c>
-      <c r="F76" s="65" t="s">
+      <c r="F76" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G76" s="63"/>
-      <c r="H76" s="90" t="s">
+      <c r="G76" s="61"/>
+      <c r="H76" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
       <c r="Q76" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="R76" s="65">
+      <c r="R76" s="63">
         <v>41</v>
       </c>
       <c r="S76" s="19">
@@ -5454,26 +4730,26 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="62"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
-      <c r="O77" s="62"/>
-      <c r="P77" s="62"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
       <c r="Q77" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R77" s="66"/>
+      <c r="R77" s="64"/>
       <c r="S77" s="21">
         <v>24000</v>
       </c>
@@ -5482,38 +4758,38 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="63" t="s">
+      <c r="A78" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="93" t="s">
+      <c r="C78" s="61"/>
+      <c r="D78" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E78" s="65">
+      <c r="E78" s="63">
         <v>2022</v>
       </c>
-      <c r="F78" s="65">
+      <c r="F78" s="63">
         <v>11.622</v>
       </c>
-      <c r="G78" s="63"/>
-      <c r="H78" s="90" t="s">
+      <c r="G78" s="61"/>
+      <c r="H78" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
       <c r="Q78" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="R78" s="65">
+      <c r="R78" s="63">
         <v>41</v>
       </c>
       <c r="S78" s="19">
@@ -5524,26 +4800,26 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
-      <c r="N79" s="64"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="64"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
       <c r="Q79" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="R79" s="67"/>
+      <c r="R79" s="65"/>
       <c r="S79" s="20">
         <v>308000</v>
       </c>
@@ -5552,26 +4828,26 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="64"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="64"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="64"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="62"/>
       <c r="Q80" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="R80" s="67"/>
+      <c r="R80" s="65"/>
       <c r="S80" s="20">
         <v>20000</v>
       </c>
@@ -5580,26 +4856,26 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="64"/>
-      <c r="P81" s="64"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="89"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+      <c r="O81" s="62"/>
+      <c r="P81" s="62"/>
       <c r="Q81" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="R81" s="67"/>
+      <c r="R81" s="65"/>
       <c r="S81" s="20">
         <v>31874</v>
       </c>
@@ -5608,26 +4884,26 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="64"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="64"/>
-      <c r="M82" s="64"/>
-      <c r="N82" s="64"/>
-      <c r="O82" s="64"/>
-      <c r="P82" s="64"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
       <c r="Q82" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="R82" s="67"/>
+      <c r="R82" s="65"/>
       <c r="S82" s="20">
         <v>22382</v>
       </c>
@@ -5636,26 +4912,26 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="62"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="95"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
       <c r="Q83" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="R83" s="66"/>
+      <c r="R83" s="64"/>
       <c r="S83" s="33">
         <v>23630</v>
       </c>
@@ -5664,38 +4940,38 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" s="63" t="s">
+      <c r="A84" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="80" t="s">
+      <c r="C84" s="61"/>
+      <c r="D84" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="65">
+      <c r="E84" s="63">
         <v>2021</v>
       </c>
-      <c r="F84" s="65">
+      <c r="F84" s="63">
         <v>4.0960000000000001</v>
       </c>
-      <c r="G84" s="63"/>
-      <c r="H84" s="58" t="s">
+      <c r="G84" s="61"/>
+      <c r="H84" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="63"/>
-      <c r="J84" s="63"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="63"/>
-      <c r="M84" s="63"/>
-      <c r="N84" s="63"/>
-      <c r="O84" s="63"/>
-      <c r="P84" s="63"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
       <c r="Q84" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="R84" s="65">
+      <c r="R84" s="63">
         <v>41</v>
       </c>
       <c r="S84" s="34">
@@ -5706,26 +4982,26 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="64"/>
-      <c r="N85" s="64"/>
-      <c r="O85" s="64"/>
-      <c r="P85" s="64"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="62"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="62"/>
+      <c r="O85" s="62"/>
+      <c r="P85" s="62"/>
       <c r="Q85" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="R85" s="67"/>
+      <c r="R85" s="65"/>
       <c r="S85" s="34">
         <v>1450</v>
       </c>
@@ -5734,22 +5010,22 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
-      <c r="P86" s="64"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="62"/>
+      <c r="O86" s="62"/>
+      <c r="P86" s="62"/>
       <c r="Q86" s="20" t="s">
         <v>82</v>
       </c>
@@ -5764,22 +5040,22 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="62"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
-      <c r="O87" s="62"/>
-      <c r="P87" s="62"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="60"/>
+      <c r="O87" s="60"/>
+      <c r="P87" s="60"/>
       <c r="Q87" s="26" t="s">
         <v>108</v>
       </c>
@@ -5794,36 +5070,36 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="B88" s="63" t="s">
+      <c r="A88" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="65">
+      <c r="C88" s="61"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="63">
         <v>2022</v>
       </c>
-      <c r="F88" s="65" t="s">
+      <c r="F88" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G88" s="63"/>
-      <c r="H88" s="90" t="s">
+      <c r="G88" s="61"/>
+      <c r="H88" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
       <c r="Q88" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R88" s="65">
+      <c r="R88" s="63">
         <v>41</v>
       </c>
       <c r="S88" s="34">
@@ -5834,26 +5110,26 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="64"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="64"/>
-      <c r="P89" s="64"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+      <c r="L89" s="62"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="62"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="62"/>
       <c r="Q89" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="R89" s="67"/>
+      <c r="R89" s="65"/>
       <c r="S89" s="20">
         <v>8606</v>
       </c>
@@ -5862,26 +5138,26 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="64"/>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
-      <c r="N90" s="64"/>
-      <c r="O90" s="64"/>
-      <c r="P90" s="64"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="62"/>
       <c r="Q90" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="R90" s="67"/>
+      <c r="R90" s="65"/>
       <c r="S90" s="20">
         <v>776</v>
       </c>
@@ -5890,22 +5166,22 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="62"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="81"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
-      <c r="L91" s="62"/>
-      <c r="M91" s="62"/>
-      <c r="N91" s="62"/>
-      <c r="O91" s="62"/>
-      <c r="P91" s="62"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
       <c r="Q91" s="26" t="s">
         <v>108</v>
       </c>
@@ -5921,7 +5197,7 @@
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -5958,36 +5234,36 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="B93" s="64" t="s">
+      <c r="A93" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="67">
+      <c r="C93" s="62"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="65">
         <v>2022</v>
       </c>
-      <c r="F93" s="67" t="s">
+      <c r="F93" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G93" s="64"/>
-      <c r="H93" s="91" t="s">
+      <c r="G93" s="62"/>
+      <c r="H93" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="64"/>
-      <c r="M93" s="64"/>
-      <c r="N93" s="64"/>
-      <c r="O93" s="64"/>
-      <c r="P93" s="64"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="62"/>
+      <c r="O93" s="62"/>
+      <c r="P93" s="62"/>
       <c r="Q93" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="R93" s="67">
+      <c r="R93" s="65">
         <v>41</v>
       </c>
       <c r="S93" s="34">
@@ -5998,26 +5274,26 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="62"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="62"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="62"/>
-      <c r="M94" s="62"/>
-      <c r="N94" s="62"/>
-      <c r="O94" s="62"/>
-      <c r="P94" s="62"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="60"/>
       <c r="Q94" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="R94" s="66"/>
+      <c r="R94" s="64"/>
       <c r="S94" s="21">
         <v>31873</v>
       </c>
@@ -6027,7 +5303,7 @@
     </row>
     <row r="95" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>135</v>
@@ -6068,38 +5344,38 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="B96" s="63" t="s">
+      <c r="A96" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="80" t="s">
+      <c r="C96" s="61"/>
+      <c r="D96" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="E96" s="65">
+      <c r="E96" s="63">
         <v>2020</v>
       </c>
-      <c r="F96" s="65">
+      <c r="F96" s="63">
         <v>4.0759999999999996</v>
       </c>
-      <c r="G96" s="63"/>
-      <c r="H96" s="88" t="s">
+      <c r="G96" s="61"/>
+      <c r="H96" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="63"/>
-      <c r="J96" s="63"/>
-      <c r="K96" s="63"/>
-      <c r="L96" s="63"/>
-      <c r="M96" s="63"/>
-      <c r="N96" s="63"/>
-      <c r="O96" s="63"/>
-      <c r="P96" s="63"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="61"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="61"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="61"/>
+      <c r="P96" s="61"/>
       <c r="Q96" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R96" s="86">
+      <c r="R96" s="84">
         <v>41</v>
       </c>
       <c r="S96" s="19">
@@ -6110,26 +5386,26 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="62"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="62"/>
-      <c r="N97" s="62"/>
-      <c r="O97" s="62"/>
-      <c r="P97" s="62"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="60"/>
       <c r="Q97" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="R97" s="87"/>
+      <c r="R97" s="85"/>
       <c r="S97" s="21">
         <v>11466</v>
       </c>
@@ -6138,34 +5414,34 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="63" t="s">
+      <c r="A98" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="B98" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="65">
+      <c r="C98" s="61"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="63">
         <v>2020</v>
       </c>
-      <c r="F98" s="65"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="88" t="s">
+      <c r="F98" s="63"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="I98" s="63"/>
-      <c r="J98" s="63"/>
-      <c r="K98" s="63"/>
-      <c r="L98" s="63"/>
-      <c r="M98" s="63"/>
-      <c r="N98" s="63"/>
-      <c r="O98" s="63"/>
-      <c r="P98" s="63"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="61"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="61"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="61"/>
+      <c r="P98" s="61"/>
       <c r="Q98" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="R98" s="65">
+      <c r="R98" s="63">
         <v>41</v>
       </c>
       <c r="S98" s="27">
@@ -6176,58 +5452,58 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="62"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="81"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="89"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="62"/>
-      <c r="N99" s="62"/>
-      <c r="O99" s="62"/>
-      <c r="P99" s="62"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="87"/>
+      <c r="I99" s="60"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="60"/>
+      <c r="N99" s="60"/>
+      <c r="O99" s="60"/>
+      <c r="P99" s="60"/>
       <c r="Q99" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="R99" s="66"/>
+      <c r="R99" s="64"/>
       <c r="S99" s="28">
         <v>308000</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="B100" s="63" t="s">
+      <c r="A100" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B100" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C100" s="63"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="65">
+      <c r="C100" s="61"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="63">
         <v>2020</v>
       </c>
-      <c r="F100" s="65"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="I100" s="63"/>
-      <c r="J100" s="63"/>
-      <c r="K100" s="63"/>
-      <c r="L100" s="63"/>
-      <c r="M100" s="63"/>
-      <c r="N100" s="63"/>
-      <c r="O100" s="63"/>
-      <c r="P100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="61"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="61"/>
+      <c r="P100" s="61"/>
       <c r="Q100" s="29" t="s">
         <v>153</v>
       </c>
@@ -6242,22 +5518,22 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="84"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="64"/>
-      <c r="O101" s="64"/>
-      <c r="P101" s="64"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="62"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="62"/>
+      <c r="N101" s="62"/>
+      <c r="O101" s="62"/>
+      <c r="P101" s="62"/>
       <c r="Q101" s="12" t="s">
         <v>129</v>
       </c>
@@ -6272,22 +5548,22 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="62"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="83"/>
+      <c r="I102" s="60"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="60"/>
+      <c r="N102" s="60"/>
+      <c r="O102" s="60"/>
+      <c r="P102" s="60"/>
       <c r="Q102" s="30" t="s">
         <v>130</v>
       </c>
@@ -6303,7 +5579,7 @@
     </row>
     <row r="103" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>131</v>
@@ -6316,7 +5592,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
       <c r="H103" s="45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -6340,30 +5616,30 @@
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" s="63" t="s">
+      <c r="A104" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="63"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="65">
+      <c r="C104" s="61"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="63">
         <v>2019</v>
       </c>
-      <c r="F104" s="65"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="I104" s="63"/>
-      <c r="J104" s="63"/>
-      <c r="K104" s="63"/>
-      <c r="L104" s="63"/>
-      <c r="M104" s="63"/>
-      <c r="N104" s="63"/>
-      <c r="O104" s="63"/>
-      <c r="P104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
+      <c r="N104" s="61"/>
+      <c r="O104" s="61"/>
+      <c r="P104" s="61"/>
       <c r="Q104" s="29" t="s">
         <v>80</v>
       </c>
@@ -6378,22 +5654,22 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="84"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="64"/>
-      <c r="O105" s="64"/>
-      <c r="P105" s="64"/>
+      <c r="A105" s="62"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="62"/>
+      <c r="O105" s="62"/>
+      <c r="P105" s="62"/>
       <c r="Q105" s="12" t="s">
         <v>129</v>
       </c>
@@ -6408,22 +5684,22 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="62"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="62"/>
-      <c r="J106" s="62"/>
-      <c r="K106" s="62"/>
-      <c r="L106" s="62"/>
-      <c r="M106" s="62"/>
-      <c r="N106" s="62"/>
-      <c r="O106" s="62"/>
-      <c r="P106" s="62"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="83"/>
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60"/>
+      <c r="O106" s="60"/>
+      <c r="P106" s="60"/>
       <c r="Q106" s="30" t="s">
         <v>130</v>
       </c>
@@ -6868,440 +6144,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V189"/>
-  <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="50">
-        <v>43672</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="50">
-        <v>44029</v>
-      </c>
-      <c r="R10" s="48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H25" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R26" s="48" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="52" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="B56" s="56" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B57" s="55" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="B59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="B61">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="50">
-        <v>43672</v>
-      </c>
-      <c r="H63" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q63" s="48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="50">
-        <v>44029</v>
-      </c>
-    </row>
-    <row r="78" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H78" s="49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R79" s="48" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="52" customFormat="1" ht="113.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="B112" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B113" s="52" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="B114" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="B115" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="B116" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="B117">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="B118">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="B119" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D119" s="50">
-        <v>43672</v>
-      </c>
-      <c r="H119" s="49" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B120" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D120" s="50">
-        <v>44029</v>
-      </c>
-      <c r="R120" s="48" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H138" s="49" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="139" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R139" s="48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" s="52" customFormat="1" ht="85.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="B171" s="52" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="B172" s="55" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="B173" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="B174" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B175" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="B176">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A177" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B177">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A178" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B178" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D178" s="50">
-        <v>44029</v>
-      </c>
-      <c r="L178" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V179" s="48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B188" s="49"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="50"/>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B189" s="49"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="50"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B57" r:id="rId1" display="http://lin.uestc.edu.cn/server/Methy/data"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B172" r:id="rId3" display="https://github.com/nongdaxiaofeng/RFAthM6A"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
@@ -7315,39 +6160,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7355,12 +6200,12 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B7">
         <v>880</v>
@@ -7368,7 +6213,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <v>880</v>
@@ -7376,25 +6221,25 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D9" s="50">
         <f>[1]paper!$F$5</f>
         <v>43749</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>137</v>
@@ -7412,12 +6257,12 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" s="49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7428,7 +6273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -7447,39 +6292,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7487,12 +6332,12 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="B7">
         <v>154000</v>
@@ -7500,7 +6345,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <v>154000</v>
@@ -7508,25 +6353,25 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D9" s="50">
         <f>[1]paper!$F$5</f>
         <v>43749</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>137</v>
@@ -7537,7 +6382,7 @@
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7550,11 +6395,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -7568,39 +6413,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7613,7 +6458,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B7">
         <v>1934</v>
@@ -7621,7 +6466,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <v>1934</v>
@@ -7629,30 +6474,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D9" s="50">
         <f>[1]paper!$F$5</f>
         <v>43749</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="54" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="54" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
